--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3471.15</v>
+        <v>3463.383333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>8487.266666666666</v>
+        <v>8884.316666666668</v>
       </c>
       <c r="C3" t="n">
-        <v>3281.016666666667</v>
+        <v>3691.816666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>8094.633333333333</v>
+        <v>6605.083333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>2942.416666666667</v>
+        <v>4112.866666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>7336.55</v>
+        <v>13623.9</v>
       </c>
       <c r="G3" t="n">
-        <v>8941.066666666668</v>
+        <v>7943.733333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3606.533333333333</v>
+        <v>3370.15</v>
       </c>
       <c r="B4" t="n">
-        <v>3245.983333333333</v>
+        <v>3007.933333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3063.55</v>
+        <v>3211.283333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>3054.6</v>
+        <v>3788.816666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>3241.866666666667</v>
+        <v>6202.733333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>3529.05</v>
+        <v>5768.266666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>4280.95</v>
+        <v>6040.866666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5351.05</v>
+        <v>1604.933333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>5461.75</v>
+        <v>3781.233333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>6120.233333333334</v>
+        <v>10020.56666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>2340.216666666667</v>
+        <v>2089.383333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>17335.65</v>
+        <v>10039.4</v>
       </c>
       <c r="F5" t="n">
-        <v>20148.46666666667</v>
+        <v>21487.51666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>22728.63333333333</v>
+        <v>31005.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2726.683333333333</v>
+        <v>945.9666666666668</v>
       </c>
       <c r="B6" t="n">
-        <v>3041.7</v>
+        <v>1023475.866666667</v>
       </c>
       <c r="C6" t="n">
-        <v>5162.583333333333</v>
+        <v>4649.166666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>3686.2</v>
+        <v>1287.633333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>2243.5</v>
+        <v>1615.883333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>4934</v>
+        <v>5673.75</v>
       </c>
       <c r="G6" t="n">
-        <v>5650.383333333333</v>
+        <v>12917.98333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1384.416666666667</v>
+        <v>692.1</v>
       </c>
       <c r="B7" t="n">
-        <v>441.7833333333334</v>
+        <v>419.7333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>743.1666666666666</v>
+        <v>588.8666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>513.6833333333333</v>
+        <v>1003174.166666667</v>
       </c>
       <c r="E7" t="n">
-        <v>559.75</v>
+        <v>760.85</v>
       </c>
       <c r="F7" t="n">
-        <v>2247.85</v>
+        <v>2323.583333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>2076.783333333333</v>
+        <v>632.5333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>789.2</v>
+        <v>1059650.083333333</v>
       </c>
       <c r="B8" t="n">
-        <v>396.6833333333333</v>
+        <v>596.5166666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>298.3666666666667</v>
+        <v>886.4333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>736.8333333333334</v>
+        <v>1110.55</v>
       </c>
       <c r="E8" t="n">
-        <v>328.6666666666667</v>
+        <v>686.6833333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>1264.216666666667</v>
+        <v>1766.916666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>1163.033333333333</v>
+        <v>2764.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>226.1166666666667</v>
+        <v>204.2333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>151.75</v>
+        <v>420.2</v>
       </c>
       <c r="C9" t="n">
-        <v>225.45</v>
+        <v>660.6333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>350.2</v>
+        <v>187.4</v>
       </c>
       <c r="E9" t="n">
-        <v>322.2166666666666</v>
+        <v>313.2</v>
       </c>
       <c r="F9" t="n">
-        <v>312.35</v>
+        <v>558.3333333333334</v>
       </c>
       <c r="G9" t="n">
-        <v>580.4</v>
+        <v>828.1166666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2818.483333333333</v>
+        <v>2660.583333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>511.0833333333333</v>
+        <v>428.6333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>499.9333333333333</v>
+        <v>411.3666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>742.1166666666667</v>
+        <v>554.1166666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1400.95</v>
+        <v>1585.3</v>
       </c>
       <c r="F10" t="n">
-        <v>856.1333333333333</v>
+        <v>778784.9166666666</v>
       </c>
       <c r="G10" t="n">
-        <v>829.2166666666667</v>
+        <v>574.9166666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>269.2</v>
+        <v>211.2166666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>284.8333333333333</v>
+        <v>386.15</v>
       </c>
       <c r="C11" t="n">
-        <v>269.4666666666666</v>
+        <v>215.3666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>232.1666666666666</v>
+        <v>1003174.166666667</v>
       </c>
       <c r="E11" t="n">
-        <v>404.0333333333334</v>
+        <v>279.9333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>454.25</v>
+        <v>354.0333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>364.2833333333334</v>
+        <v>258.0166666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>542.3333333333334</v>
+        <v>601.1833333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>609.9666666666667</v>
+        <v>557.5333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>351.15</v>
+        <v>1345.5</v>
       </c>
       <c r="D12" t="n">
-        <v>407.1166666666667</v>
+        <v>350.9</v>
       </c>
       <c r="E12" t="n">
-        <v>672.2333333333333</v>
+        <v>279.0166666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>1130.833333333333</v>
+        <v>546.6833333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>1591.7</v>
+        <v>516.5666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3463.383333333333</v>
+        <v>4699.5</v>
       </c>
       <c r="B3" t="n">
-        <v>8884.316666666668</v>
+        <v>14276.71666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>3691.816666666667</v>
+        <v>4150.95</v>
       </c>
       <c r="D3" t="n">
-        <v>6605.083333333333</v>
+        <v>9255.733333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>4112.866666666667</v>
+        <v>3778.9</v>
       </c>
       <c r="F3" t="n">
-        <v>13623.9</v>
+        <v>11750.48333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>7943.733333333334</v>
+        <v>13692.18333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3370.15</v>
+        <v>4406.783333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>3007.933333333333</v>
+        <v>2646.783333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3211.283333333333</v>
+        <v>3357.283333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>3788.816666666667</v>
+        <v>3022.95</v>
       </c>
       <c r="E4" t="n">
-        <v>6202.733333333334</v>
+        <v>5450.566666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>5768.266666666666</v>
+        <v>24265.55</v>
       </c>
       <c r="G4" t="n">
-        <v>6040.866666666667</v>
+        <v>253439.7833333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1604.933333333333</v>
+        <v>8471.716666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>3781.233333333333</v>
+        <v>81455.73333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>10020.56666666667</v>
+        <v>26969.23333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>2089.383333333333</v>
+        <v>43681.8</v>
       </c>
       <c r="E5" t="n">
-        <v>10039.4</v>
+        <v>4682.6</v>
       </c>
       <c r="F5" t="n">
-        <v>21487.51666666666</v>
+        <v>22771.81666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>31005.35</v>
+        <v>34926.18333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>945.9666666666668</v>
+        <v>1502.166666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1023475.866666667</v>
+        <v>5137.65</v>
       </c>
       <c r="C6" t="n">
-        <v>4649.166666666667</v>
+        <v>4084.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1287.633333333333</v>
+        <v>2954.183333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>1615.883333333333</v>
+        <v>1666.2</v>
       </c>
       <c r="F6" t="n">
-        <v>5673.75</v>
+        <v>5285.45</v>
       </c>
       <c r="G6" t="n">
-        <v>12917.98333333333</v>
+        <v>6211.783333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>692.1</v>
+        <v>390.2666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>419.7333333333333</v>
+        <v>498.1166666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>588.8666666666667</v>
+        <v>4618.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1003174.166666667</v>
+        <v>423.3833333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>760.85</v>
+        <v>1178.666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>2323.583333333333</v>
+        <v>853.6833333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>632.5333333333333</v>
+        <v>687.4333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1059650.083333333</v>
+        <v>577.6333333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>596.5166666666667</v>
+        <v>788.9</v>
       </c>
       <c r="C8" t="n">
-        <v>886.4333333333333</v>
+        <v>783.7</v>
       </c>
       <c r="D8" t="n">
-        <v>1110.55</v>
+        <v>702.8333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>686.6833333333333</v>
+        <v>1199.333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>1766.916666666667</v>
+        <v>4461.216666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>2764.3</v>
+        <v>1208.166666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>204.2333333333333</v>
+        <v>353.0833333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>420.2</v>
+        <v>216.7</v>
       </c>
       <c r="C9" t="n">
-        <v>660.6333333333333</v>
+        <v>430.2666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>187.4</v>
+        <v>124.6</v>
       </c>
       <c r="E9" t="n">
-        <v>313.2</v>
+        <v>307.5</v>
       </c>
       <c r="F9" t="n">
-        <v>558.3333333333334</v>
+        <v>676</v>
       </c>
       <c r="G9" t="n">
-        <v>828.1166666666667</v>
+        <v>527.0666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2660.583333333333</v>
+        <v>2210.733333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>428.6333333333333</v>
+        <v>582.4333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>411.3666666666667</v>
+        <v>689.1166666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>554.1166666666667</v>
+        <v>1403.15</v>
       </c>
       <c r="E10" t="n">
-        <v>1585.3</v>
+        <v>1506.5</v>
       </c>
       <c r="F10" t="n">
-        <v>778784.9166666666</v>
+        <v>660.4833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>574.9166666666666</v>
+        <v>445.7166666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>211.2166666666667</v>
+        <v>272.4</v>
       </c>
       <c r="B11" t="n">
-        <v>386.15</v>
+        <v>778.65</v>
       </c>
       <c r="C11" t="n">
-        <v>215.3666666666667</v>
+        <v>356.7666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>1003174.166666667</v>
+        <v>369.4333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>279.9333333333333</v>
+        <v>490.5666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>354.0333333333334</v>
+        <v>373.8</v>
       </c>
       <c r="G11" t="n">
-        <v>258.0166666666667</v>
+        <v>551.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>601.1833333333333</v>
+        <v>939.4</v>
       </c>
       <c r="B12" t="n">
-        <v>557.5333333333333</v>
+        <v>397.6333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>1345.5</v>
+        <v>312.4166666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>350.9</v>
+        <v>1086.083333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>279.0166666666667</v>
+        <v>269.65</v>
       </c>
       <c r="F12" t="n">
-        <v>546.6833333333333</v>
+        <v>318.75</v>
       </c>
       <c r="G12" t="n">
-        <v>516.5666666666667</v>
+        <v>498.85</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4699.5</v>
+        <v>6427.916666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>14276.71666666667</v>
+        <v>4937.133333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4150.95</v>
+        <v>6101.2</v>
       </c>
       <c r="D3" t="n">
-        <v>9255.733333333334</v>
+        <v>27493.78333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>3778.9</v>
+        <v>6449.133333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>11750.48333333333</v>
+        <v>4139.3</v>
       </c>
       <c r="G3" t="n">
-        <v>13692.18333333333</v>
+        <v>18546.61666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4406.783333333334</v>
+        <v>5120.7</v>
       </c>
       <c r="B4" t="n">
-        <v>2646.783333333333</v>
+        <v>2985.583333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3357.283333333333</v>
+        <v>2628.633333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>3022.95</v>
+        <v>4269.733333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>5450.566666666667</v>
+        <v>5393.25</v>
       </c>
       <c r="F4" t="n">
-        <v>24265.55</v>
+        <v>5521.733333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>253439.7833333333</v>
+        <v>8526.966666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8471.716666666667</v>
+        <v>757281</v>
       </c>
       <c r="B5" t="n">
-        <v>81455.73333333334</v>
+        <v>56289.73333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>26969.23333333333</v>
+        <v>138646.1666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>43681.8</v>
+        <v>130570.7666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>4682.6</v>
+        <v>802782.0333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>22771.81666666667</v>
+        <v>26677.28333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>34926.18333333333</v>
+        <v>23582.93333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1502.166666666667</v>
+        <v>1763.666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>5137.65</v>
+        <v>28850.78333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>4084.5</v>
+        <v>6255.866666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>2954.183333333333</v>
+        <v>17337.93333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>1666.2</v>
+        <v>1945.833333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>5285.45</v>
+        <v>7419.6</v>
       </c>
       <c r="G6" t="n">
-        <v>6211.783333333334</v>
+        <v>5760.066666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>390.2666666666667</v>
+        <v>587.3833333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>498.1166666666667</v>
+        <v>1308.416666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>4618.95</v>
+        <v>940.85</v>
       </c>
       <c r="D7" t="n">
-        <v>423.3833333333333</v>
+        <v>684.8333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>1178.666666666667</v>
+        <v>557.5333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>853.6833333333333</v>
+        <v>818.5666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>687.4333333333333</v>
+        <v>1655.983333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>577.6333333333333</v>
+        <v>1011.15</v>
       </c>
       <c r="B8" t="n">
-        <v>788.9</v>
+        <v>4474.6</v>
       </c>
       <c r="C8" t="n">
-        <v>783.7</v>
+        <v>1390.816666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>702.8333333333334</v>
+        <v>3692.733333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.333333333333</v>
+        <v>1650.033333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>4461.216666666666</v>
+        <v>2635.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1208.166666666667</v>
+        <v>552.3666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>353.0833333333333</v>
+        <v>214.45</v>
       </c>
       <c r="B9" t="n">
-        <v>216.7</v>
+        <v>134.9333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>430.2666666666667</v>
+        <v>87.7</v>
       </c>
       <c r="D9" t="n">
-        <v>124.6</v>
+        <v>156.35</v>
       </c>
       <c r="E9" t="n">
-        <v>307.5</v>
+        <v>186.8666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>676</v>
+        <v>484.7666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>527.0666666666667</v>
+        <v>633.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2210.733333333333</v>
+        <v>1817.033333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>582.4333333333333</v>
+        <v>3785.183333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>689.1166666666667</v>
+        <v>1292.283333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>1403.15</v>
+        <v>753.8666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1506.5</v>
+        <v>1367</v>
       </c>
       <c r="F10" t="n">
-        <v>660.4833333333333</v>
+        <v>1234.45</v>
       </c>
       <c r="G10" t="n">
-        <v>445.7166666666666</v>
+        <v>754.3166666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>272.4</v>
+        <v>757281</v>
       </c>
       <c r="B11" t="n">
-        <v>778.65</v>
+        <v>469.95</v>
       </c>
       <c r="C11" t="n">
-        <v>356.7666666666667</v>
+        <v>687.3</v>
       </c>
       <c r="D11" t="n">
-        <v>369.4333333333333</v>
+        <v>250.7166666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>490.5666666666667</v>
+        <v>382.95</v>
       </c>
       <c r="F11" t="n">
-        <v>373.8</v>
+        <v>693.0666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>551.35</v>
+        <v>1157.083333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>939.4</v>
+        <v>144.4666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>397.6333333333333</v>
+        <v>236.3666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>312.4166666666667</v>
+        <v>648.4833333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>1086.083333333333</v>
+        <v>538.8</v>
       </c>
       <c r="E12" t="n">
-        <v>269.65</v>
+        <v>360.3833333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>318.75</v>
+        <v>1464.716666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>498.85</v>
+        <v>2288.216666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6427.916666666667</v>
+        <v>5390.4</v>
       </c>
       <c r="B3" t="n">
-        <v>4937.133333333333</v>
+        <v>4809.166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>6101.2</v>
+        <v>6409.15</v>
       </c>
       <c r="D3" t="n">
-        <v>27493.78333333333</v>
+        <v>5854.483333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>6449.133333333333</v>
+        <v>4254.283333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>4139.3</v>
+        <v>2513.633333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>18546.61666666666</v>
+        <v>3810.583333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5120.7</v>
+        <v>6203.366666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2985.583333333333</v>
+        <v>878383.0166666667</v>
       </c>
       <c r="C4" t="n">
-        <v>2628.633333333333</v>
+        <v>4166.816666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>4269.733333333334</v>
+        <v>5017.816666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>5393.25</v>
+        <v>4590.683333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>5521.733333333334</v>
+        <v>5909.683333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>8526.966666666667</v>
+        <v>8836.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>757281</v>
+        <v>3764.533333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>56289.73333333333</v>
+        <v>86889.7</v>
       </c>
       <c r="C5" t="n">
-        <v>138646.1666666667</v>
+        <v>123788.6833333333</v>
       </c>
       <c r="D5" t="n">
-        <v>130570.7666666667</v>
+        <v>26077.4</v>
       </c>
       <c r="E5" t="n">
-        <v>802782.0333333333</v>
+        <v>2984.45</v>
       </c>
       <c r="F5" t="n">
-        <v>26677.28333333333</v>
+        <v>23900.08333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>23582.93333333333</v>
+        <v>41911.28333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1763.666666666667</v>
+        <v>2215.85</v>
       </c>
       <c r="B6" t="n">
-        <v>28850.78333333333</v>
+        <v>8234.916666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>6255.866666666667</v>
+        <v>5686.683333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>17337.93333333333</v>
+        <v>21146.75</v>
       </c>
       <c r="E6" t="n">
-        <v>1945.833333333333</v>
+        <v>2421.05</v>
       </c>
       <c r="F6" t="n">
-        <v>7419.6</v>
+        <v>3970.85</v>
       </c>
       <c r="G6" t="n">
-        <v>5760.066666666667</v>
+        <v>6716.433333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>587.3833333333333</v>
+        <v>2261.1</v>
       </c>
       <c r="B7" t="n">
-        <v>1308.416666666667</v>
+        <v>2251.233333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>940.85</v>
+        <v>3025.85</v>
       </c>
       <c r="D7" t="n">
-        <v>684.8333333333334</v>
+        <v>4671.466666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>557.5333333333333</v>
+        <v>1503.666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>818.5666666666667</v>
+        <v>3403.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1655.983333333333</v>
+        <v>3289.016666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1011.15</v>
+        <v>1938.416666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>4474.6</v>
+        <v>10438.58333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.816666666667</v>
+        <v>6110.2</v>
       </c>
       <c r="D8" t="n">
-        <v>3692.733333333333</v>
+        <v>1717.95</v>
       </c>
       <c r="E8" t="n">
-        <v>1650.033333333333</v>
+        <v>1767</v>
       </c>
       <c r="F8" t="n">
-        <v>2635.6</v>
+        <v>2437.466666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>552.3666666666667</v>
+        <v>1557.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>214.45</v>
+        <v>392.6666666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>134.9333333333333</v>
+        <v>209.55</v>
       </c>
       <c r="C9" t="n">
-        <v>87.7</v>
+        <v>219.4333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>156.35</v>
+        <v>392.9833333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>186.8666666666667</v>
+        <v>404.4166666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>484.7666666666667</v>
+        <v>1120.433333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>633.7</v>
+        <v>590.3666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1817.033333333333</v>
+        <v>1688.083333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>3785.183333333333</v>
+        <v>10753.38333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>1292.283333333333</v>
+        <v>884.5833333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>753.8666666666667</v>
+        <v>488.7666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1367</v>
+        <v>1138.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1234.45</v>
+        <v>511.4833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>754.3166666666667</v>
+        <v>486.1666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>757281</v>
+        <v>330.3</v>
       </c>
       <c r="B11" t="n">
-        <v>469.95</v>
+        <v>214.9166666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>687.3</v>
+        <v>371.0833333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>250.7166666666667</v>
+        <v>270.15</v>
       </c>
       <c r="E11" t="n">
-        <v>382.95</v>
+        <v>189.1166666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>693.0666666666667</v>
+        <v>352.2166666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>1157.083333333333</v>
+        <v>496.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>144.4666666666667</v>
+        <v>938.9166666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>236.3666666666667</v>
+        <v>471.3166666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>648.4833333333333</v>
+        <v>626.9333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>538.8</v>
+        <v>833.7</v>
       </c>
       <c r="E12" t="n">
-        <v>360.3833333333333</v>
+        <v>254.75</v>
       </c>
       <c r="F12" t="n">
-        <v>1464.716666666667</v>
+        <v>277.3166666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>2288.216666666667</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5390.4</v>
+        <v>5132.366666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>4809.166666666667</v>
+        <v>4965.216666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>6409.15</v>
+        <v>4295.483333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>5854.483333333334</v>
+        <v>6002.4</v>
       </c>
       <c r="E3" t="n">
-        <v>4254.283333333334</v>
+        <v>4444.65</v>
       </c>
       <c r="F3" t="n">
-        <v>2513.633333333333</v>
+        <v>1779.366666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>3810.583333333333</v>
+        <v>3726.383333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6203.366666666667</v>
+        <v>4057.416666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>878383.0166666667</v>
+        <v>2790.7</v>
       </c>
       <c r="C4" t="n">
-        <v>4166.816666666667</v>
+        <v>3177.716666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>5017.816666666667</v>
+        <v>4792.833333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>4590.683333333333</v>
+        <v>4466.416666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>5909.683333333333</v>
+        <v>13707.61666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>8836.35</v>
+        <v>6590.366666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3764.533333333333</v>
+        <v>3098.616666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>86889.7</v>
+        <v>95828.61666666668</v>
       </c>
       <c r="C5" t="n">
-        <v>123788.6833333333</v>
+        <v>51562.88333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>26077.4</v>
+        <v>17672.91666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>2984.45</v>
+        <v>1876.033333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>23900.08333333333</v>
+        <v>20038.56666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>41911.28333333333</v>
+        <v>34531.28333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2215.85</v>
+        <v>3243.05</v>
       </c>
       <c r="B6" t="n">
-        <v>8234.916666666666</v>
+        <v>1691.766666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>5686.683333333333</v>
+        <v>1251.266666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>21146.75</v>
+        <v>4690.2</v>
       </c>
       <c r="E6" t="n">
-        <v>2421.05</v>
+        <v>4730.2</v>
       </c>
       <c r="F6" t="n">
-        <v>3970.85</v>
+        <v>931.6666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>6716.433333333333</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2261.1</v>
+        <v>1608.483333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>2251.233333333333</v>
+        <v>1174.366666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>3025.85</v>
+        <v>2207.833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>4671.466666666666</v>
+        <v>1786.133333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>1503.666666666667</v>
+        <v>1806.15</v>
       </c>
       <c r="F7" t="n">
-        <v>3403.05</v>
+        <v>2285.183333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>3289.016666666667</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1938.416666666667</v>
+        <v>903.8666666666668</v>
       </c>
       <c r="B8" t="n">
-        <v>10438.58333333333</v>
+        <v>860.8333333333334</v>
       </c>
       <c r="C8" t="n">
-        <v>6110.2</v>
+        <v>695.9333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>1717.95</v>
+        <v>715.1666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>1767</v>
+        <v>789.75</v>
       </c>
       <c r="F8" t="n">
-        <v>2437.466666666667</v>
+        <v>862.1333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>1557.2</v>
+        <v>860.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>392.6666666666667</v>
+        <v>327.7833333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>209.55</v>
+        <v>176.8333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>219.4333333333333</v>
+        <v>195.0333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>392.9833333333333</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>404.4166666666667</v>
+        <v>284.55</v>
       </c>
       <c r="F9" t="n">
-        <v>1120.433333333333</v>
+        <v>1020.866666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>590.3666666666667</v>
+        <v>707.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1688.083333333333</v>
+        <v>1775.183333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>10753.38333333333</v>
+        <v>427.6833333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>884.5833333333334</v>
+        <v>417.55</v>
       </c>
       <c r="D10" t="n">
-        <v>488.7666666666667</v>
+        <v>516.9833333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>1138.9</v>
+        <v>1252.166666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>511.4833333333333</v>
+        <v>527.3833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>486.1666666666667</v>
+        <v>524.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>330.3</v>
+        <v>315.5166666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>214.9166666666666</v>
+        <v>705.05</v>
       </c>
       <c r="C11" t="n">
-        <v>371.0833333333333</v>
+        <v>328.3833333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>270.15</v>
+        <v>331.6166666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>189.1166666666667</v>
+        <v>371.6</v>
       </c>
       <c r="F11" t="n">
-        <v>352.2166666666666</v>
+        <v>289.0666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>496.7</v>
+        <v>394.5333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>938.9166666666666</v>
+        <v>1384.683333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>471.3166666666667</v>
+        <v>849865.0166666667</v>
       </c>
       <c r="C12" t="n">
-        <v>626.9333333333333</v>
+        <v>293.3666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>833.7</v>
+        <v>272.6833333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>254.75</v>
+        <v>704412.5666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>277.3166666666667</v>
+        <v>842.1</v>
       </c>
       <c r="G12" t="n">
-        <v>382</v>
+        <v>389.6666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5132.366666666667</v>
+        <v>5732.683333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>4965.216666666666</v>
+        <v>4421.833333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4295.483333333334</v>
+        <v>4794.516666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>6002.4</v>
+        <v>2416.183333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>4444.65</v>
+        <v>4292.316666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1779.366666666667</v>
+        <v>1908.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3726.383333333333</v>
+        <v>3690.433333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4057.416666666667</v>
+        <v>6053.033333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2790.7</v>
+        <v>3713.6</v>
       </c>
       <c r="C4" t="n">
-        <v>3177.716666666667</v>
+        <v>10816.76666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>4792.833333333333</v>
+        <v>3810.383333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>4466.416666666667</v>
+        <v>73055.11666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>13707.61666666667</v>
+        <v>5912.883333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>6590.366666666667</v>
+        <v>15627.58333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3098.616666666667</v>
+        <v>8798.683333333332</v>
       </c>
       <c r="B5" t="n">
-        <v>95828.61666666668</v>
+        <v>45115.36666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>51562.88333333333</v>
+        <v>88439.93333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>17672.91666666667</v>
+        <v>22328.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1876.033333333333</v>
+        <v>5718.116666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>20038.56666666667</v>
+        <v>17518.9</v>
       </c>
       <c r="G5" t="n">
-        <v>34531.28333333333</v>
+        <v>24038.08333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3243.05</v>
+        <v>1190.05</v>
       </c>
       <c r="B6" t="n">
-        <v>1691.766666666667</v>
+        <v>2605.216666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>1251.266666666667</v>
+        <v>2002.666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>4690.2</v>
+        <v>2381.083333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>4730.2</v>
+        <v>329.0333333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>931.6666666666666</v>
+        <v>2634.183333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>855</v>
+        <v>1282.883333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1608.483333333333</v>
+        <v>1806.933333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1174.366666666667</v>
+        <v>1899.633333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>2207.833333333333</v>
+        <v>2774.666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1786.133333333333</v>
+        <v>1207.75</v>
       </c>
       <c r="E7" t="n">
-        <v>1806.15</v>
+        <v>855.9333333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>2285.183333333333</v>
+        <v>706.8833333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>1454</v>
+        <v>6379.916666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>903.8666666666668</v>
+        <v>946.3</v>
       </c>
       <c r="B8" t="n">
-        <v>860.8333333333334</v>
+        <v>1025.25</v>
       </c>
       <c r="C8" t="n">
-        <v>695.9333333333333</v>
+        <v>737.3833333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>715.1666666666666</v>
+        <v>2142.316666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>789.75</v>
+        <v>871.95</v>
       </c>
       <c r="F8" t="n">
-        <v>862.1333333333333</v>
+        <v>2678.316666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>860.75</v>
+        <v>900.4833333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>327.7833333333334</v>
+        <v>233.0666666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>176.8333333333333</v>
+        <v>198.6666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>195.0333333333333</v>
+        <v>269.3166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>237.3833333333333</v>
+        <v>121.1666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>284.55</v>
+        <v>345.15</v>
       </c>
       <c r="F9" t="n">
-        <v>1020.866666666667</v>
+        <v>487</v>
       </c>
       <c r="G9" t="n">
-        <v>707.75</v>
+        <v>680.5333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1775.183333333333</v>
+        <v>1355.8</v>
       </c>
       <c r="B10" t="n">
-        <v>427.6833333333333</v>
+        <v>303.4833333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>417.55</v>
+        <v>283.0666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>516.9833333333333</v>
+        <v>428.9666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>1252.166666666667</v>
+        <v>864.2166666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>527.3833333333333</v>
+        <v>1176.383333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>524.7</v>
+        <v>637.6333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>315.5166666666667</v>
+        <v>350.8166666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>705.05</v>
+        <v>611.1</v>
       </c>
       <c r="C11" t="n">
-        <v>328.3833333333333</v>
+        <v>609.9166666666666</v>
       </c>
       <c r="D11" t="n">
-        <v>331.6166666666667</v>
+        <v>337.45</v>
       </c>
       <c r="E11" t="n">
-        <v>371.6</v>
+        <v>277.6333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>289.0666666666667</v>
+        <v>450</v>
       </c>
       <c r="G11" t="n">
-        <v>394.5333333333334</v>
+        <v>589.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1384.683333333333</v>
+        <v>438.1666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>849865.0166666667</v>
+        <v>161.65</v>
       </c>
       <c r="C12" t="n">
-        <v>293.3666666666667</v>
+        <v>241.2166666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>272.6833333333333</v>
+        <v>1215.183333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>704412.5666666667</v>
+        <v>750.4666666666667</v>
       </c>
       <c r="F12" t="n">
-        <v>842.1</v>
+        <v>1106</v>
       </c>
       <c r="G12" t="n">
-        <v>389.6666666666667</v>
+        <v>1116.75</v>
       </c>
     </row>
   </sheetData>

--- a/src/CANALES_DEPORTIVOS.xlsx
+++ b/src/CANALES_DEPORTIVOS.xlsx
@@ -495,232 +495,232 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5732.683333333333</v>
+        <v>4651.25</v>
       </c>
       <c r="B3" t="n">
-        <v>4421.833333333333</v>
+        <v>4244.433333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4794.516666666666</v>
+        <v>3812.95</v>
       </c>
       <c r="D3" t="n">
-        <v>2416.183333333333</v>
+        <v>3644.75</v>
       </c>
       <c r="E3" t="n">
-        <v>4292.316666666667</v>
+        <v>3496.266666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1908.75</v>
+        <v>1073.516666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>3690.433333333333</v>
+        <v>2181.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6053.033333333334</v>
+        <v>4519.166666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>3713.6</v>
+        <v>3332.833333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>10816.76666666667</v>
+        <v>5608.6</v>
       </c>
       <c r="D4" t="n">
-        <v>3810.383333333333</v>
+        <v>2899.3</v>
       </c>
       <c r="E4" t="n">
-        <v>73055.11666666667</v>
+        <v>51446.5</v>
       </c>
       <c r="F4" t="n">
-        <v>5912.883333333333</v>
+        <v>9767.549999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>15627.58333333333</v>
+        <v>13402.68333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8798.683333333332</v>
+        <v>5429.2</v>
       </c>
       <c r="B5" t="n">
-        <v>45115.36666666667</v>
+        <v>2279.45</v>
       </c>
       <c r="C5" t="n">
-        <v>88439.93333333333</v>
+        <v>48682.75</v>
       </c>
       <c r="D5" t="n">
-        <v>22328.8</v>
+        <v>5737.8</v>
       </c>
       <c r="E5" t="n">
-        <v>5718.116666666667</v>
+        <v>2029.05</v>
       </c>
       <c r="F5" t="n">
-        <v>17518.9</v>
+        <v>24955.15</v>
       </c>
       <c r="G5" t="n">
-        <v>24038.08333333333</v>
+        <v>13313.78333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1190.05</v>
+        <v>1299.366666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>2605.216666666667</v>
+        <v>1361.533333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>2002.666666666667</v>
+        <v>1905.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2381.083333333333</v>
+        <v>2325.5</v>
       </c>
       <c r="E6" t="n">
-        <v>329.0333333333334</v>
+        <v>4766.983333333334</v>
       </c>
       <c r="F6" t="n">
-        <v>2634.183333333333</v>
+        <v>1587.883333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>1282.883333333333</v>
+        <v>13092.38333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1806.933333333333</v>
+        <v>1515.5</v>
       </c>
       <c r="B7" t="n">
-        <v>1899.633333333333</v>
+        <v>1739.116666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>2774.666666666667</v>
+        <v>3489.25</v>
       </c>
       <c r="D7" t="n">
-        <v>1207.75</v>
+        <v>2032.016666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>855.9333333333333</v>
+        <v>4586.6</v>
       </c>
       <c r="F7" t="n">
-        <v>706.8833333333333</v>
+        <v>4678.566666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>6379.916666666667</v>
+        <v>5779.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>946.3</v>
+        <v>598.0666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1025.25</v>
+        <v>495.5666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>737.3833333333333</v>
+        <v>424.4333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>2142.316666666667</v>
+        <v>524.8666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>871.95</v>
+        <v>517.0166666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>2678.316666666667</v>
+        <v>1085.466666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>900.4833333333333</v>
+        <v>1005.566666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>233.0666666666666</v>
+        <v>190.4</v>
       </c>
       <c r="B9" t="n">
-        <v>198.6666666666666</v>
+        <v>308.5333333333334</v>
       </c>
       <c r="C9" t="n">
-        <v>269.3166666666667</v>
+        <v>117.4833333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>121.1666666666667</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>345.15</v>
+        <v>356.3833333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>487</v>
+        <v>389.3</v>
       </c>
       <c r="G9" t="n">
-        <v>680.5333333333333</v>
+        <v>341.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1355.8</v>
+        <v>1662.65</v>
       </c>
       <c r="B10" t="n">
-        <v>303.4833333333333</v>
+        <v>483.6</v>
       </c>
       <c r="C10" t="n">
-        <v>283.0666666666667</v>
+        <v>216.4833333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>428.9666666666666</v>
+        <v>733.3166666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>864.2166666666667</v>
+        <v>947.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1176.383333333333</v>
+        <v>385</v>
       </c>
       <c r="G10" t="n">
-        <v>637.6333333333333</v>
+        <v>568.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>350.8166666666667</v>
+        <v>174.95</v>
       </c>
       <c r="B11" t="n">
-        <v>611.1</v>
+        <v>193.3</v>
       </c>
       <c r="C11" t="n">
-        <v>609.9166666666666</v>
+        <v>214.3</v>
       </c>
       <c r="D11" t="n">
-        <v>337.45</v>
+        <v>438.8333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>277.6333333333333</v>
+        <v>408.8666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>450</v>
+        <v>336.8833333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>589.35</v>
+        <v>469.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>438.1666666666667</v>
+        <v>297.35</v>
       </c>
       <c r="B12" t="n">
-        <v>161.65</v>
+        <v>255.4166666666666</v>
       </c>
       <c r="C12" t="n">
-        <v>241.2166666666667</v>
+        <v>172.1666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>1215.183333333333</v>
+        <v>246.5666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>750.4666666666667</v>
+        <v>167.4333333333333</v>
       </c>
       <c r="F12" t="n">
-        <v>1106</v>
+        <v>147.2166666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>1116.75</v>
+        <v>567.1333333333333</v>
       </c>
     </row>
   </sheetData>
